--- a/master.xlsx
+++ b/master.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikec\Documents\PrismModels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A0C781-6C5F-4F44-9B16-E1B1BF91A750}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98438AB2-95D0-4769-9CAA-F730A08B74B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="3600" windowWidth="21600" windowHeight="11145" xr2:uid="{46FB0B2D-C138-406A-8B07-B24287C1500F}"/>
+    <workbookView xWindow="1155" yWindow="915" windowWidth="21600" windowHeight="11145" activeTab="2" xr2:uid="{46FB0B2D-C138-406A-8B07-B24287C1500F}"/>
   </bookViews>
   <sheets>
     <sheet name="TAL" sheetId="1" r:id="rId1"/>
     <sheet name="4CL" sheetId="2" r:id="rId2"/>
     <sheet name="C3H" sheetId="4" r:id="rId3"/>
     <sheet name="COMT" sheetId="5" r:id="rId4"/>
+    <sheet name="STS" sheetId="6" r:id="rId5"/>
+    <sheet name="CUS" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="66">
   <si>
     <t>Substrate</t>
   </si>
@@ -96,9 +98,6 @@
     <t>P. trichocarpa</t>
   </si>
   <si>
-    <t>Km (M)</t>
-  </si>
-  <si>
     <t>Kcat (1/s)</t>
   </si>
   <si>
@@ -178,6 +177,63 @@
   </si>
   <si>
     <t>KEGG R00737 - Sabio 50785 - UniProt P35510</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>CUS</t>
+  </si>
+  <si>
+    <t>Arachis hypogaea</t>
+  </si>
+  <si>
+    <t>Oryza sativa</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>Km (uM)</t>
+  </si>
+  <si>
+    <t>A. thaliana</t>
+  </si>
+  <si>
+    <t>Z. mays</t>
+  </si>
+  <si>
+    <t>KEGG R00737 - Sabio 52327 - UniProt Q8VXG7</t>
+  </si>
+  <si>
+    <t>KEGG R00737 - Sabio 52328 - UniProt Q8VXG7</t>
+  </si>
+  <si>
+    <t>R. capsulatus</t>
+  </si>
+  <si>
+    <t>KEGG R00737 - Sabio 52569 - UniProt Q3IWB0</t>
+  </si>
+  <si>
+    <t>KEGG R00737 - Sabio 52571</t>
+  </si>
+  <si>
+    <t>S.espanaensis</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1428420/</t>
+  </si>
+  <si>
+    <t>Sabio</t>
+  </si>
+  <si>
+    <t>https://febs.onlinelibrary.wiley.com/doi/full/10.1016/S0014-5793%2802%2902272-X</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC357076/</t>
+  </si>
+  <si>
+    <t>nmol/s*mg</t>
   </si>
 </sst>
 </file>
@@ -215,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -248,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,15 +326,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -590,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219651CE-2FF7-47DE-B664-1947123F433D}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,15 +691,24 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="1">
+        <v>62559</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -659,10 +742,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>4</v>
@@ -673,10 +756,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>30</v>
@@ -688,23 +771,25 @@
         <v>0.3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1">
         <f>G7</f>
         <v>0.3</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C8" s="1">
         <v>40</v>
@@ -716,23 +801,25 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1">
-        <f>E8</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="K8" s="3"/>
+        <f>E8*10000000</f>
+        <v>25000</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C9" s="1">
         <v>40</v>
@@ -744,23 +831,25 @@
         <v>2.3E-3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I14" si="0">E9</f>
-        <v>2.3E-3</v>
-      </c>
-      <c r="K9" s="3"/>
+        <f t="shared" ref="I9:I19" si="0">E9*10000000</f>
+        <v>23000</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C10" s="1">
         <v>40</v>
@@ -772,23 +861,25 @@
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="K10" s="3"/>
+        <v>78000</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>40</v>
@@ -800,23 +891,25 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="K11" s="3"/>
+        <v>26000</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>30</v>
@@ -824,27 +917,29 @@
       <c r="D12" s="1">
         <v>8.5</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="11">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="K12" s="3"/>
+        <v>1499.9999999999998</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>37</v>
@@ -852,93 +947,441 @@
       <c r="D13" s="1">
         <v>9</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="11">
         <v>3.1399999999999998E-5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1">
         <v>3.4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>3.1399999999999998E-5</v>
+        <v>314</v>
       </c>
       <c r="J13" s="1">
         <f>G13</f>
         <v>3.4</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
       </c>
       <c r="E14" s="1">
         <v>1.049E-3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>1.049E-3</v>
+        <v>10490</v>
       </c>
       <c r="J14" s="1">
         <f>G14</f>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="E15" s="11">
+        <v>4.1E-5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="J15" s="1">
+        <f>G15</f>
+        <v>0.94</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1.8E-5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J16" s="1">
+        <f>G16</f>
+        <v>0.92</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E17" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="J17" s="1">
+        <f>G17</f>
+        <v>0.02</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>1600.0000000000002</v>
+      </c>
+      <c r="J18" s="1">
+        <f>G18</f>
+        <v>0.06</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E19" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1">
+        <f>E19</f>
+        <v>15.5</v>
+      </c>
+      <c r="J19" s="1">
+        <f>G19</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1">
+        <f>E20</f>
+        <v>16</v>
+      </c>
+      <c r="J20" s="1">
+        <f>G20</f>
+        <v>27.7</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ref="I21:I23" si="1">E21</f>
+        <v>15.6</v>
+      </c>
+      <c r="J21" s="1">
+        <f>G21</f>
+        <v>27.2</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J22" s="1">
+        <f>G22</f>
+        <v>0.9</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
+      <c r="C23" s="1">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="J23" s="1">
+        <f>G23</f>
+        <v>0.3</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K19" r:id="rId1" xr:uid="{0520694B-D382-4CE7-8E31-D8B9635F1203}"/>
+    <hyperlink ref="K20" r:id="rId2" xr:uid="{36476509-0010-416F-AB57-FAE88382D285}"/>
+    <hyperlink ref="K21" r:id="rId3" xr:uid="{BC0396B8-5533-4DA0-BADF-2BC45BBEF4F7}"/>
+    <hyperlink ref="K22" r:id="rId4" xr:uid="{8B9ECE14-9C2E-44FF-BB34-F5D5FF718CEF}"/>
+    <hyperlink ref="K23" r:id="rId5" xr:uid="{2E1E2F6F-FEFB-48FE-A18B-155FEAB6968F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D540A416-F78E-4C3F-AE9A-32F51308940F}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,15 +1405,24 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="1">
+        <v>57055</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1004,10 +1456,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>4</v>
@@ -1020,24 +1472,24 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>10.51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
         <v>44.48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1">
-        <f>E7*(10^-6)</f>
-        <v>1.0509999999999999E-5</v>
+        <f>E7</f>
+        <v>10.51</v>
       </c>
       <c r="J7" s="1">
         <f>G7/60</f>
@@ -1054,27 +1506,27 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1">
         <v>10.56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
         <v>17.07</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8:I12" si="0">E8*(10^-6)</f>
-        <v>1.0560000000000001E-5</v>
+        <f t="shared" ref="I8:I15" si="0">E8</f>
+        <v>10.56</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:J12" si="1">G8/60</f>
+        <f t="shared" ref="J8:J15" si="1">G8/60</f>
         <v>0.28450000000000003</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1088,24 +1540,24 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>70.17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1">
         <v>50.33</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>7.0170000000000001E-5</v>
+        <v>70.17</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="1"/>
@@ -1122,24 +1574,24 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>148.06</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1">
         <v>106.83</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>1.4805999999999999E-4</v>
+        <v>148.06</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="1"/>
@@ -1156,24 +1608,24 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>43.51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>43.69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>4.3509999999999995E-5</v>
+        <v>43.51</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="1"/>
@@ -1190,24 +1642,24 @@
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>133.51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1">
         <v>68.41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>1.3350999999999999E-4</v>
+        <v>133.51</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="1"/>
@@ -1221,12 +1673,102 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K13" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1">
+        <v>432</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="J13" s="1">
+        <f>(G13*1000*57055)/(10000000000)</f>
+        <v>0.57055</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K14" s="3"/>
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1">
+        <v>186</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1">
+        <v>187</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:J15" si="2">(G14*1000*57055)/(10000000000)</f>
+        <v>1.0669284999999999</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1">
+        <v>153</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87294150000000004</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{6C040B7C-747E-4759-897B-77C8924D13D4}"/>
     <hyperlink ref="K8" r:id="rId2" xr:uid="{FB7C017B-BE81-46B6-8B7B-1B583FA52381}"/>
@@ -1234,9 +1776,12 @@
     <hyperlink ref="K10" r:id="rId4" xr:uid="{F53F413C-201A-4528-AAF3-796B92BBCD46}"/>
     <hyperlink ref="K11" r:id="rId5" xr:uid="{9E239E19-CD5F-4751-9E50-4E2185134702}"/>
     <hyperlink ref="K12" r:id="rId6" xr:uid="{70BAA727-8910-4F80-8763-154E8BA9B4B4}"/>
+    <hyperlink ref="K13" r:id="rId7" xr:uid="{CD6D0F68-8855-4983-89FA-5FD91AE4F244}"/>
+    <hyperlink ref="K14" r:id="rId8" xr:uid="{03FF3C86-B81E-406A-8841-84829BBCC94A}"/>
+    <hyperlink ref="K15" r:id="rId9" xr:uid="{72EF711E-FAA5-4D8D-A588-FC60187C016C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1244,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A3630B-DF96-4306-A876-AE0EBCF41F1A}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,15 +1814,24 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="1">
+        <v>24602</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1311,10 +1865,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>4</v>
@@ -1327,24 +1881,24 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>4.96</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
         <v>57.79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1">
-        <f>E7*(10^-6)</f>
-        <v>4.9599999999999999E-6</v>
+        <f>E7</f>
+        <v>4.96</v>
       </c>
       <c r="J7" s="1">
         <f>G7/60</f>
@@ -1358,55 +1912,55 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>25</v>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>604</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
         <v>463</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8:I9" si="0">E8*(10^-6)</f>
-        <v>6.0399999999999994E-4</v>
+        <f t="shared" ref="I8:I9" si="0">E8</f>
+        <v>604</v>
       </c>
       <c r="J8" s="1">
         <f>G8</f>
         <v>463</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>26</v>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="1">
         <v>708</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1">
         <v>492</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>7.0799999999999997E-4</v>
+        <v>708</v>
       </c>
       <c r="J9" s="1">
         <f>G9</f>
@@ -1430,6 +1984,9 @@
       <c r="K14" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="K8" r:id="rId1" location="MOESM1" display="https://www.nature.com/articles/s41467-019-10082-7 - MOESM1" xr:uid="{738E2DA4-6F1A-4AD6-A6C7-BEE08D3119AE}"/>
     <hyperlink ref="K7" r:id="rId2" xr:uid="{2C1AC24D-9CCB-4AE5-A030-A884F843E8C2}"/>
@@ -1444,7 +2001,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +2016,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -1468,15 +2025,24 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="1">
+        <v>53967</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1510,10 +2076,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>4</v>
@@ -1526,7 +2092,7 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1">
@@ -1539,27 +2105,27 @@
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="5">
-        <f>E7</f>
-        <v>4.6999999999999997E-5</v>
+        <v>26</v>
+      </c>
+      <c r="I7" s="11">
+        <f>E7*10^6</f>
+        <v>47</v>
       </c>
       <c r="J7" s="1">
         <f>G7</f>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
         <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1581,10 +2147,279 @@
       <c r="K14" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{26B9B9CF-3AA2-4602-BDAA-91C22BFE42DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DF154F-44A3-41E3-B19C-216A13FDB3D4}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42706</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="E12" s="5"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="E13" s="5"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86235A0B-200E-4220-9353-8901B3E5CDE7}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43212</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="E12" s="5"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="E13" s="5"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/master.xlsx
+++ b/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikec\Documents\PrismModels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98438AB2-95D0-4769-9CAA-F730A08B74B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8184221C-13FA-4121-AE1A-3B75B12EC14D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="915" windowWidth="21600" windowHeight="11145" activeTab="2" xr2:uid="{46FB0B2D-C138-406A-8B07-B24287C1500F}"/>
+    <workbookView xWindow="-9930" yWindow="8760" windowWidth="21600" windowHeight="11145" activeTab="2" xr2:uid="{46FB0B2D-C138-406A-8B07-B24287C1500F}"/>
   </bookViews>
   <sheets>
     <sheet name="TAL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="96">
   <si>
     <t>Substrate</t>
   </si>
@@ -125,9 +125,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>KEGG R03366 - Sabio 63308 - UniProt Q9XGW0</t>
   </si>
   <si>
@@ -234,6 +231,99 @@
   </si>
   <si>
     <t>nmol/s*mg</t>
+  </si>
+  <si>
+    <t>caffeoyl-CoA</t>
+  </si>
+  <si>
+    <t>pkat/kg</t>
+  </si>
+  <si>
+    <t>M. sativa</t>
+  </si>
+  <si>
+    <t>A. hypogaea</t>
+  </si>
+  <si>
+    <t>V. vinifera</t>
+  </si>
+  <si>
+    <t>P. strobus</t>
+  </si>
+  <si>
+    <t>P.massoniana</t>
+  </si>
+  <si>
+    <t>https://aem.asm.org/content/aem/77/10/3451.full.pdf</t>
+  </si>
+  <si>
+    <t>p-coumaroyl CoA</t>
+  </si>
+  <si>
+    <t>P. virgatum</t>
+  </si>
+  <si>
+    <t>P. densiflora</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/99/5/3335#sec-10</t>
+  </si>
+  <si>
+    <t>http://repositorium.sdum.uminho.pt/bitstream/1822/31617/1/document_18058_1.pdf</t>
+  </si>
+  <si>
+    <t>(CURS)</t>
+  </si>
+  <si>
+    <t>feruloyl-CoA</t>
+  </si>
+  <si>
+    <t>p-coumaroyl-CoA</t>
+  </si>
+  <si>
+    <t>form cinnamoylferuloylmethane</t>
+  </si>
+  <si>
+    <t>p-coumaroylmethane</t>
+  </si>
+  <si>
+    <t>https://www.jbc.org/content/284/17/11160.full.pdf</t>
+  </si>
+  <si>
+    <t>C. longa</t>
+  </si>
+  <si>
+    <t>CURS3 " "</t>
+  </si>
+  <si>
+    <t>CURS1 " "</t>
+  </si>
+  <si>
+    <t>CURS2 in O. sativa - consider comparing sequences</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0014579309005602</t>
+  </si>
+  <si>
+    <t>CURS2 " "</t>
+  </si>
+  <si>
+    <t>CURS1 ""</t>
+  </si>
+  <si>
+    <t>O. basilicum</t>
+  </si>
+  <si>
+    <t>pkat/mg</t>
+  </si>
+  <si>
+    <t>https://reader.elsevier.com/reader/sd/pii/0003986191904922?token=3E65BBC95059EA70D98B52DAA66C2B91E1353CFB68CC1B85E78FF05AF6B5E4A9CA5ECB4FD143EABA7F7630D7F99CD7C6</t>
+  </si>
+  <si>
+    <t>COMT1</t>
+  </si>
+  <si>
+    <t>COMT2</t>
   </si>
 </sst>
 </file>
@@ -310,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,9 +421,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,6 +434,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,7 +760,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:K19"/>
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,23 +785,23 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>62559</v>
+        <v>53967</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -742,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>20</v>
@@ -756,10 +849,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>30</v>
@@ -778,18 +871,18 @@
         <v>0.3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C8" s="1">
         <v>40</v>
@@ -808,18 +901,18 @@
         <v>25000</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>40</v>
@@ -834,22 +927,22 @@
         <v>28</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I19" si="0">E9*10000000</f>
+        <f t="shared" ref="I9:I18" si="0">E9*10000000</f>
         <v>23000</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>40</v>
@@ -868,18 +961,18 @@
         <v>78000</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>40</v>
@@ -898,18 +991,18 @@
         <v>26000</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>30</v>
@@ -917,7 +1010,7 @@
       <c r="D12" s="1">
         <v>8.5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -928,18 +1021,18 @@
         <v>1499.9999999999998</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>37</v>
@@ -947,7 +1040,7 @@
       <c r="D13" s="1">
         <v>9</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>3.1399999999999998E-5</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -964,22 +1057,22 @@
         <v>314</v>
       </c>
       <c r="J13" s="1">
-        <f>G13</f>
+        <f t="shared" ref="J13:J23" si="1">G13</f>
         <v>3.4</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <v>37</v>
@@ -1004,22 +1097,22 @@
         <v>10490</v>
       </c>
       <c r="J14" s="1">
-        <f>G14</f>
+        <f t="shared" si="1"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1">
         <v>40</v>
@@ -1027,7 +1120,7 @@
       <c r="D15" s="1">
         <v>7.7</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>4.1E-5</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1036,7 +1129,7 @@
       <c r="G15" s="1">
         <v>0.94</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="I15" s="1">
@@ -1044,22 +1137,22 @@
         <v>410</v>
       </c>
       <c r="J15" s="1">
-        <f>G15</f>
+        <f t="shared" si="1"/>
         <v>0.94</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1">
         <v>40</v>
@@ -1067,7 +1160,7 @@
       <c r="D16" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>1.8E-5</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1076,7 +1169,7 @@
       <c r="G16" s="1">
         <v>0.92</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="1">
@@ -1084,22 +1177,22 @@
         <v>180</v>
       </c>
       <c r="J16" s="1">
-        <f>G16</f>
+        <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
         <v>25</v>
@@ -1107,7 +1200,7 @@
       <c r="D17" s="1">
         <v>8.5</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1116,7 +1209,7 @@
       <c r="G17" s="1">
         <v>0.02</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="1">
@@ -1124,22 +1217,22 @@
         <v>600</v>
       </c>
       <c r="J17" s="1">
-        <f>G17</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1">
         <v>25</v>
@@ -1147,7 +1240,7 @@
       <c r="D18" s="1">
         <v>8.5</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1164,22 +1257,22 @@
         <v>1600.0000000000002</v>
       </c>
       <c r="J18" s="1">
-        <f>G18</f>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="1">
         <v>30</v>
@@ -1196,7 +1289,7 @@
       <c r="G19" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="1">
@@ -1204,19 +1297,19 @@
         <v>15.5</v>
       </c>
       <c r="J19" s="1">
-        <f>G19</f>
+        <f t="shared" si="1"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1">
         <v>30</v>
@@ -1241,19 +1334,19 @@
         <v>16</v>
       </c>
       <c r="J20" s="1">
-        <f>G20</f>
+        <f t="shared" si="1"/>
         <v>27.7</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1">
         <v>35</v>
@@ -1274,23 +1367,23 @@
         <v>26</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21:I23" si="1">E21</f>
+        <f t="shared" ref="I21:I23" si="2">E21</f>
         <v>15.6</v>
       </c>
       <c r="J21" s="1">
-        <f>G21</f>
+        <f t="shared" si="1"/>
         <v>27.2</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1">
         <v>35</v>
@@ -1311,23 +1404,23 @@
         <v>26</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="J22" s="1">
-        <f>G22</f>
         <v>0.9</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C23" s="1">
         <v>35</v>
@@ -1348,15 +1441,15 @@
         <v>26</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="J23" s="1">
-        <f>G23</f>
         <v>0.3</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1378,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D540A416-F78E-4C3F-AE9A-32F51308940F}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,23 +1499,23 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>57055</v>
+        <v>62559</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1456,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>20</v>
@@ -1522,11 +1615,11 @@
         <v>22</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8:I15" si="0">E8</f>
+        <f t="shared" ref="I8:I18" si="0">E8</f>
         <v>10.56</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:J15" si="1">G8/60</f>
+        <f t="shared" ref="J8:J12" si="1">G8/60</f>
         <v>0.28450000000000003</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1676,8 +1769,8 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>53</v>
+      <c r="B13" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="1">
         <v>432</v>
@@ -1689,26 +1782,26 @@
         <v>100</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
       <c r="J13" s="1">
-        <f>(G13*1000*57055)/(10000000000)</f>
-        <v>0.57055</v>
+        <f>(G13*1000*$D$2)/(10000000000)</f>
+        <v>0.62558999999999998</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>53</v>
+      <c r="B14" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="1">
         <v>186</v>
@@ -1720,26 +1813,26 @@
         <v>187</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="J14:J15" si="2">(G14*1000*57055)/(10000000000)</f>
-        <v>1.0669284999999999</v>
+        <f t="shared" ref="J14:J15" si="2">(G14*1000*$D$2)/(10000000000)</f>
+        <v>1.1698533</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>53</v>
+      <c r="B15" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="E15" s="1">
         <v>26</v>
@@ -1751,7 +1844,7 @@
         <v>153</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
@@ -1759,11 +1852,125 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>0.87294150000000004</v>
+        <v>0.95715269999999997</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>18.8</v>
+      </c>
+      <c r="J16" s="1">
+        <f>G16</f>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" ref="J17:J18" si="3">G17</f>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>12.9</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="K19" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1779,9 +1986,10 @@
     <hyperlink ref="K13" r:id="rId7" xr:uid="{CD6D0F68-8855-4983-89FA-5FD91AE4F244}"/>
     <hyperlink ref="K14" r:id="rId8" xr:uid="{03FF3C86-B81E-406A-8841-84829BBCC94A}"/>
     <hyperlink ref="K15" r:id="rId9" xr:uid="{72EF711E-FAA5-4D8D-A588-FC60187C016C}"/>
+    <hyperlink ref="K19" r:id="rId10" xr:uid="{8FA1E9D9-BA3E-4FBE-9D2A-6AEC6F33729C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1790,7 +1998,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,23 +2023,23 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>24602</v>
+        <v>57055</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1865,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>20</v>
@@ -1998,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC209611-B30A-41C7-A7F7-2591D242A194}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,23 +2234,23 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>53967</v>
+        <v>24602</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -2076,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>20</v>
@@ -2093,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1">
         <v>30</v>
@@ -2113,7 +2321,7 @@
       <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f>E7*10^6</f>
         <v>47</v>
       </c>
@@ -2121,40 +2329,285 @@
         <f>G7</f>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
-        <v>30</v>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29.78</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>75.81</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1">
+        <f>E8</f>
+        <v>29.78</v>
+      </c>
+      <c r="J8" s="1">
+        <f>G8/60</f>
+        <v>1.2635000000000001</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1">
+        <v>131.27000000000001</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9:I10" si="0">E9</f>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" ref="J9:J10" si="1">G9/60</f>
+        <v>2.1878333333333333</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>23.07</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44.95</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>23.07</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74916666666666676</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="1">
+        <f>(G11*1*$D$2)/(10000000000)</f>
+        <v>4.18234E-6</v>
+      </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" ref="J12:J16" si="2">(G12*1*$D$2)/(10000000000)</f>
+        <v>1.0332840000000002E-5</v>
+      </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.156294E-5</v>
+      </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.254702E-5</v>
+      </c>
       <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="1">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1">
+        <v>913</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="1">
+        <f>E15</f>
+        <v>53</v>
+      </c>
+      <c r="J15" s="1">
+        <f>(G15*1000*$D$2)/(1000000000)</f>
+        <v>22.461625999999999</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1">
+        <v>741</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="1">
+        <f>E16</f>
+        <v>59</v>
+      </c>
+      <c r="J16" s="1">
+        <f>(G16*1000*$D$2)/(1000000000)</f>
+        <v>18.230081999999999</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:G3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1" xr:uid="{26B9B9CF-3AA2-4602-BDAA-91C22BFE42DF}"/>
+    <hyperlink ref="K8" r:id="rId1" xr:uid="{1E0CFD63-3CA8-4FC7-9E16-E057F5107667}"/>
+    <hyperlink ref="K9" r:id="rId2" xr:uid="{07DF6B3B-A57C-442E-A519-0235A6CFC0C0}"/>
+    <hyperlink ref="K10" r:id="rId3" xr:uid="{943B9794-E6F4-4153-B114-65CB67F51B11}"/>
+    <hyperlink ref="K15" r:id="rId4" xr:uid="{06572541-4E69-4350-B088-5CDA5AB3EEEC}"/>
+    <hyperlink ref="K16" r:id="rId5" xr:uid="{E25D07C2-898F-483C-B9CC-71C6EB69E7AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2163,7 +2616,334 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D3" sqref="D3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42706</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1">
+        <f>E7</f>
+        <v>4.43</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" ref="J7:J12" si="0">G7/60</f>
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8.56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I12" si="1">E8</f>
+        <v>8.56</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.87</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11.85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>11.85</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335E-3</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8E-3</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>11.1</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8666666666666659E-3</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{1546DAEA-BCFA-448B-BE0C-10DB7A58E3B4}"/>
+    <hyperlink ref="K8" r:id="rId2" xr:uid="{9133CBE4-0C44-482F-86D2-8FB0B6D02E8F}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{3CD01444-E17B-416F-A1F1-6425926CD781}"/>
+    <hyperlink ref="K10" r:id="rId4" xr:uid="{3C2DE5A1-EAFC-482D-AF9E-DD3F19AD9C92}"/>
+    <hyperlink ref="K11" r:id="rId5" location="sec-10" display="https://www.pnas.org/content/99/5/3335 - sec-10" xr:uid="{1A6D9150-455E-4A1E-9EC0-1D746167B2B8}"/>
+    <hyperlink ref="K12" r:id="rId6" location="sec-10" display="https://www.pnas.org/content/99/5/3335 - sec-10" xr:uid="{81EAD617-5BB1-4C37-8CC6-DE1405567CE1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86235A0B-200E-4220-9353-8901B3E5CDE7}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,28 +2963,31 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>42706</v>
+        <v>43212</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -2238,7 +3021,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>20</v>
@@ -2251,175 +3034,340 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="K7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1">
+        <f>E7</f>
+        <v>18</v>
+      </c>
+      <c r="J7" s="1">
+        <f>G7/60</f>
+        <v>1.8333333333333333E-2</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="K8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>189</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1">
+        <f>E8</f>
+        <v>189</v>
+      </c>
+      <c r="J8" s="1">
+        <f>G8/60</f>
+        <v>1.4166666666666666E-2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="K9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E9" s="10">
+        <v>89</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9:I14" si="0">E9</f>
+        <v>89</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" ref="J9:J14" si="1">G9/60</f>
+        <v>1.5666666666666666E-2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="K10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8333333333333328E-3</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="K11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="E12" s="5"/>
-      <c r="K12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666666E-3</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="E13" s="5"/>
-      <c r="K13" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>189</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4166666666666666E-2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K14" s="3"/>
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="1">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E14" s="10">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333E-2</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:G3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{35B49A50-CCAB-4A23-9E08-BFFE6E5B05F7}"/>
+    <hyperlink ref="K8" r:id="rId2" xr:uid="{EBE15750-3A1B-447C-84AE-36CCBFF31930}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{76AC2778-3D38-4AAD-8084-A7FF7CCDEC32}"/>
+    <hyperlink ref="K11" r:id="rId4" xr:uid="{787C8D1E-B2BB-4DC8-9F43-C2453486C336}"/>
+    <hyperlink ref="K13" r:id="rId5" xr:uid="{FE5AD5C3-D6C7-4580-A65B-3D1534DAC508}"/>
+    <hyperlink ref="K10" r:id="rId6" xr:uid="{4D2ADFA7-D045-40EF-A795-11818B444A47}"/>
+    <hyperlink ref="K12" r:id="rId7" xr:uid="{BC47AE5E-ADEB-45AE-A3AF-FB17676EDB23}"/>
+    <hyperlink ref="K14" r:id="rId8" xr:uid="{86B2067B-562D-4576-9E54-A6669D95547E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86235A0B-200E-4220-9353-8901B3E5CDE7}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="111" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43212</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="E12" s="5"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="E13" s="5"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K14" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>